--- a/2.开发管理/2018-11-21 到 12月18日  开发计划 .xlsx
+++ b/2.开发管理/2018-11-21 到 12月18日  开发计划 .xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA00CAC8-9EAD-4337-AB98-8CB60496450D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235BA98D-02D2-485A-8E89-404F43932CD5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="货源模块" sheetId="1" r:id="rId1"/>
     <sheet name="价格模块" sheetId="3" r:id="rId2"/>
     <sheet name="订单模块" sheetId="5" r:id="rId3"/>
     <sheet name="信用模块" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
   <si>
     <t>模块名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,7 +352,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>曾强</t>
+    <t>对接了4天，进展缓慢，已暂停。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格申请单的数据保存方式调整为单条记录新增和保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>原因是本地数据处理时，对本地数据</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分页显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时，搜索功能，实现复杂</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格查询接口 - （后台）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王齐龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格申请查询 -（前台）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加了流程状态和状态改变的日志表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王齐龙、曾强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库区库存同步接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库区同步接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,7 +424,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,16 +477,37 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -481,11 +567,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -532,6 +627,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -542,6 +652,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -827,7 +940,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:E21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -841,14 +954,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -871,7 +984,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -889,7 +1002,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -905,7 +1018,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -921,7 +1034,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -937,7 +1050,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -953,7 +1066,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -969,7 +1082,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -985,7 +1098,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="6" t="s">
         <v>38</v>
       </c>
@@ -1001,7 +1114,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
@@ -1017,7 +1130,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1029,7 +1142,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
@@ -1041,7 +1154,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="12"/>
@@ -1049,7 +1162,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="3" t="s">
         <v>59</v>
       </c>
@@ -1065,7 +1178,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="12"/>
@@ -1073,7 +1186,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
@@ -1089,7 +1202,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="2" t="s">
         <v>74</v>
       </c>
@@ -1105,7 +1218,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="3" t="s">
         <v>75</v>
       </c>
@@ -1121,41 +1234,45 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="16">
         <v>43446</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="16">
         <v>43452</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="16">
         <v>43447</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="16">
         <v>43453</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="3"/>
@@ -1233,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266F81DE-BC44-42CB-8658-4872D4AE7849}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:E22"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1244,18 +1361,18 @@
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="13" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="13" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1278,7 +1395,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1298,7 +1415,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1314,7 +1431,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1330,7 +1447,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
@@ -1346,7 +1463,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1362,7 +1479,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="10">
@@ -1374,7 +1491,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="10">
@@ -1386,7 +1503,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="5"/>
       <c r="C10" s="3"/>
       <c r="D10" s="10">
@@ -1398,7 +1515,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="5"/>
       <c r="C11" s="3"/>
       <c r="D11" s="10">
@@ -1410,7 +1527,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
       <c r="D12" s="10">
@@ -1422,7 +1539,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
       <c r="D13" s="10">
@@ -1434,13 +1551,15 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="10"/>
       <c r="E14" s="12"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="3" t="s">
         <v>54</v>
       </c>
@@ -1450,8 +1569,8 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="18" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1463,10 +1582,12 @@
       <c r="E16" s="10">
         <v>43449</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="17" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="3" t="s">
         <v>56</v>
       </c>
@@ -1482,7 +1603,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="3" t="s">
         <v>64</v>
       </c>
@@ -1498,7 +1619,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="3" t="s">
         <v>65</v>
       </c>
@@ -1514,7 +1635,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="3" t="s">
         <v>66</v>
       </c>
@@ -1530,38 +1651,76 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="10">
+        <v>55</v>
+      </c>
+      <c r="D22" s="16">
         <v>43449</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="16">
         <v>43452</v>
       </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="16">
+        <v>43451</v>
+      </c>
+      <c r="E23" s="16">
+        <v>43452</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="10">
+        <v>43453</v>
+      </c>
+      <c r="E25" s="10">
+        <v>43453</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="11"/>
@@ -1612,7 +1771,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A3:A25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1624,7 +1783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A3F8BE-0D48-46F2-88E8-04ED6E2CF782}">
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:E15"/>
     </sheetView>
   </sheetViews>
@@ -1640,15 +1799,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1674,7 +1833,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1695,7 +1854,7 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1714,7 +1873,7 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1733,7 +1892,7 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
@@ -1752,7 +1911,7 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
@@ -1771,7 +1930,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1790,7 +1949,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1809,7 +1968,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="5"/>
       <c r="C10" s="3"/>
       <c r="D10" s="10">
@@ -1824,7 +1983,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="5"/>
       <c r="C11" s="3"/>
       <c r="D11" s="10">
@@ -2007,8 +2166,18 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="B23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="10">
+        <v>43451</v>
+      </c>
+      <c r="E23" s="10">
+        <v>43451</v>
+      </c>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="11"/>
@@ -2079,7 +2248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0173EB7E-833A-46E2-8489-ABC81E5275CB}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -2094,14 +2263,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2124,7 +2293,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="22" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2144,7 +2313,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="3" t="s">
         <v>70</v>
       </c>
@@ -2162,7 +2331,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -2170,7 +2339,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -2178,7 +2347,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -2186,7 +2355,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
@@ -2194,7 +2363,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
@@ -2202,7 +2371,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="6"/>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
@@ -2210,7 +2379,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="4"/>
@@ -2218,7 +2387,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="5"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -2226,7 +2395,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="5"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
@@ -2234,7 +2403,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2242,7 +2411,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="9"/>
@@ -2250,7 +2419,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2258,19 +2427,19 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
+      <c r="A17" s="23"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
+      <c r="A18" s="23"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2278,7 +2447,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2286,7 +2455,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2294,7 +2463,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -2344,4 +2513,130 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667935BE-8D33-4A39-AA23-D72BD339C873}">
+  <dimension ref="D1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="42.25" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="16">
+        <v>43446</v>
+      </c>
+      <c r="G2" s="16">
+        <v>43452</v>
+      </c>
+    </row>
+    <row r="3" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="16">
+        <v>43447</v>
+      </c>
+      <c r="G3" s="16">
+        <v>43453</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="16">
+        <v>43449</v>
+      </c>
+      <c r="G5" s="16">
+        <v>43452</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="16">
+        <v>43451</v>
+      </c>
+      <c r="G6" s="16">
+        <v>43452</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="10">
+        <v>43442</v>
+      </c>
+      <c r="G7" s="10">
+        <v>43449</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D8" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="10">
+        <v>43451</v>
+      </c>
+      <c r="G8" s="10">
+        <v>43451</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="10">
+        <v>43452</v>
+      </c>
+      <c r="G9" s="10">
+        <v>43452</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2.开发管理/2018-11-21 到 12月18日  开发计划 .xlsx
+++ b/2.开发管理/2018-11-21 到 12月18日  开发计划 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235BA98D-02D2-485A-8E89-404F43932CD5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A031976-4737-4545-BA2F-CCD50FE533B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="货源模块" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="99">
   <si>
     <t>模块名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,6 +417,26 @@
   </si>
   <si>
     <t>库区同步接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础功能迁移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柯程文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础服务的功能迁移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请单查询（前后台）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品级价格查询（前后台）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -657,6 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1350,7 +1371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266F81DE-BC44-42CB-8658-4872D4AE7849}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -1700,8 +1721,12 @@
       <c r="C24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="D24" s="10">
+        <v>43453</v>
+      </c>
+      <c r="E24" s="10">
+        <v>43453</v>
+      </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1727,12 +1752,32 @@
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="B27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="10">
+        <v>43453</v>
+      </c>
+      <c r="E27" s="10">
+        <v>43453</v>
+      </c>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+      <c r="B28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="10">
+        <v>43453</v>
+      </c>
+      <c r="E28" s="10">
+        <v>43453</v>
+      </c>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D29" s="11"/>
@@ -1784,7 +1829,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:E15"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2184,11 +2229,27 @@
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="11"/>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="26">
+        <v>43453</v>
+      </c>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="11"/>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="26">
+        <v>43453</v>
+      </c>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2517,10 +2578,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667935BE-8D33-4A39-AA23-D72BD339C873}">
-  <dimension ref="D1:G9"/>
+  <dimension ref="D1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD2"/>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2634,6 +2695,28 @@
         <v>43452</v>
       </c>
     </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="26">
+        <v>43453</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="26">
+        <v>43453</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2.开发管理/2018-11-21 到 12月18日  开发计划 .xlsx
+++ b/2.开发管理/2018-11-21 到 12月18日  开发计划 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A031976-4737-4545-BA2F-CCD50FE533B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C7DF21-D259-4325-B00C-C81C0911410B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="货源模块" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="122">
   <si>
     <t>模块名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,7 +412,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>库区库存同步接口</t>
+    <t>基础功能迁移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柯程文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础服务的功能迁移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请单查询（前后台）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品级价格查询（前后台）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单保存为草稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础服务迁移，并删除订单中的基础服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单组织规则整合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位同步接口代码优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位占用接口代码优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库区占用接口优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单后台代码优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格查询接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码优化（拆分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王齐龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请单查询 导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织级价格查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户级价格查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开单价查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南海晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础功能页面在ecmp中调整正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴富祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元测试（同步接口2个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元测试（库区和库位占用）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -420,23 +524,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基础功能迁移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柯程文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础服务的功能迁移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请单查询（前后台）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品级价格查询（前后台）</t>
+    <t>柯程文、喻兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单查询页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +619,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -587,20 +679,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -656,12 +739,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,7 +755,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -960,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -975,14 +1060,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1005,7 +1090,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1023,7 +1108,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1039,7 +1124,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1055,7 +1140,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1071,7 +1156,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1087,7 +1172,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1103,7 +1188,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1119,7 +1204,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>38</v>
       </c>
@@ -1135,7 +1220,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
@@ -1151,7 +1236,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1163,7 +1248,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
@@ -1175,7 +1260,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="12"/>
@@ -1183,7 +1268,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="3" t="s">
         <v>59</v>
       </c>
@@ -1199,7 +1284,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="12"/>
@@ -1207,7 +1292,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
@@ -1223,7 +1308,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="2" t="s">
         <v>74</v>
       </c>
@@ -1239,7 +1324,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="3" t="s">
         <v>75</v>
       </c>
@@ -1255,7 +1340,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="3" t="s">
         <v>76</v>
       </c>
@@ -1271,7 +1356,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="3" t="s">
         <v>77</v>
       </c>
@@ -1287,45 +1372,98 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
-      <c r="B22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="B23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="10">
+        <v>43454</v>
+      </c>
+      <c r="E23" s="10">
+        <v>43456</v>
+      </c>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="B24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="10">
+        <v>43454</v>
+      </c>
+      <c r="E24" s="10">
+        <v>43456</v>
+      </c>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="B25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="10">
+        <v>43454</v>
+      </c>
+      <c r="E25" s="10">
+        <v>43456</v>
+      </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="B26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="10">
+        <v>43454</v>
+      </c>
+      <c r="E26" s="10">
+        <v>43456</v>
+      </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="B27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="10">
+        <v>43454</v>
+      </c>
+      <c r="E27" s="10">
+        <v>43456</v>
+      </c>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-    </row>
+      <c r="B28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="10">
+        <v>43454</v>
+      </c>
+      <c r="E28" s="10">
+        <v>43455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -1371,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266F81DE-BC44-42CB-8658-4872D4AE7849}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1386,14 +1524,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1416,7 +1554,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1436,7 +1574,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1452,7 +1590,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1468,7 +1606,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
@@ -1484,7 +1622,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1500,7 +1638,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="10">
@@ -1512,7 +1650,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="10">
@@ -1524,7 +1662,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="5"/>
       <c r="C10" s="3"/>
       <c r="D10" s="10">
@@ -1536,7 +1674,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="5"/>
       <c r="C11" s="3"/>
       <c r="D11" s="10">
@@ -1548,7 +1686,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
       <c r="D12" s="10">
@@ -1560,7 +1698,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
       <c r="D13" s="10">
@@ -1572,7 +1710,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="10"/>
@@ -1580,7 +1718,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="3" t="s">
         <v>54</v>
       </c>
@@ -1590,7 +1728,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="18" t="s">
         <v>52</v>
       </c>
@@ -1608,7 +1746,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="3" t="s">
         <v>56</v>
       </c>
@@ -1624,7 +1762,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="3" t="s">
         <v>64</v>
       </c>
@@ -1640,7 +1778,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="3" t="s">
         <v>65</v>
       </c>
@@ -1656,7 +1794,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="3" t="s">
         <v>66</v>
       </c>
@@ -1672,7 +1810,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="12"/>
@@ -1680,7 +1818,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="3" t="s">
         <v>57</v>
       </c>
@@ -1696,7 +1834,7 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="3" t="s">
         <v>84</v>
       </c>
@@ -1714,7 +1852,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="3" t="s">
         <v>86</v>
       </c>
@@ -1730,7 +1868,7 @@
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="3" t="s">
         <v>88</v>
       </c>
@@ -1753,7 +1891,7 @@
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>42</v>
@@ -1767,7 +1905,7 @@
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>41</v>
@@ -1784,27 +1922,102 @@
       <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="16">
+        <v>43454</v>
+      </c>
+      <c r="E30" s="10">
+        <v>43455</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="10">
+        <v>43456</v>
+      </c>
+      <c r="E31" s="10">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="10">
+        <v>43454</v>
+      </c>
+      <c r="E32" s="16">
+        <v>43454</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="10">
+        <v>43454</v>
+      </c>
+      <c r="E33" s="10">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="10">
+        <v>43454</v>
+      </c>
+      <c r="E34" s="10">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="10">
+        <v>43454</v>
+      </c>
+      <c r="E35" s="10">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1828,14 +2041,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A3F8BE-0D48-46F2-88E8-04ED6E2CF782}">
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="35.5" customWidth="1"/>
     <col min="3" max="3" width="22.625" customWidth="1"/>
     <col min="4" max="4" width="15.625" style="13" customWidth="1"/>
     <col min="5" max="5" width="17.375" style="13" customWidth="1"/>
@@ -1844,15 +2057,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1878,7 +2091,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1899,7 +2112,7 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1918,7 +2131,7 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1937,7 +2150,7 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
@@ -1956,7 +2169,7 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
@@ -1975,7 +2188,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1994,7 +2207,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2013,7 +2226,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="5"/>
       <c r="C10" s="3"/>
       <c r="D10" s="10">
@@ -2028,7 +2241,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="5"/>
       <c r="C11" s="3"/>
       <c r="D11" s="10">
@@ -2230,24 +2443,24 @@
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="19">
         <v>43453</v>
       </c>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="26">
+        <v>93</v>
+      </c>
+      <c r="D26" s="19">
         <v>43453</v>
       </c>
       <c r="E26" s="11"/>
@@ -2257,35 +2470,84 @@
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="11"/>
+      <c r="B28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="19">
+        <v>43454</v>
+      </c>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D29" s="11"/>
+      <c r="B29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="19">
+        <v>43455</v>
+      </c>
       <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D30" s="11"/>
+      <c r="B30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="19">
+        <v>43454</v>
+      </c>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="19">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="19">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="19">
+        <v>43454</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="19">
+        <v>43455</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2309,8 +2571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0173EB7E-833A-46E2-8489-ABC81E5275CB}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2324,14 +2586,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2354,7 +2616,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2374,7 +2636,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="3" t="s">
         <v>70</v>
       </c>
@@ -2392,7 +2654,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -2400,7 +2662,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -2408,7 +2670,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -2416,7 +2678,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
@@ -2424,7 +2686,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
@@ -2432,7 +2694,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="6"/>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
@@ -2440,7 +2702,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="4"/>
@@ -2448,7 +2710,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="5"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -2456,7 +2718,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="5"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
@@ -2464,7 +2726,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2472,7 +2734,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="9"/>
@@ -2480,7 +2742,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2488,19 +2750,19 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
+      <c r="A17" s="22"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2508,7 +2770,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2516,7 +2778,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2524,7 +2786,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -2578,143 +2840,298 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667935BE-8D33-4A39-AA23-D72BD339C873}">
-  <dimension ref="D1:G15"/>
+  <dimension ref="D1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:F15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="42.25" customWidth="1"/>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D1" t="s">
-        <v>92</v>
+      <c r="D1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="10">
+        <v>43454</v>
+      </c>
+      <c r="G1" s="10">
+        <v>43456</v>
       </c>
     </row>
     <row r="2" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="10">
+        <v>43454</v>
+      </c>
+      <c r="G2" s="10">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="3" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="10">
+        <v>43454</v>
+      </c>
+      <c r="G3" s="10">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="10">
+        <v>43454</v>
+      </c>
+      <c r="G4" s="10">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="16">
-        <v>43446</v>
-      </c>
-      <c r="G2" s="16">
-        <v>43452</v>
-      </c>
-    </row>
-    <row r="3" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="16">
-        <v>43447</v>
-      </c>
-      <c r="G3" s="16">
-        <v>43453</v>
-      </c>
-    </row>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="16">
-        <v>43449</v>
-      </c>
-      <c r="G5" s="16">
-        <v>43452</v>
+      <c r="F5" s="10">
+        <v>43454</v>
+      </c>
+      <c r="G5" s="10">
+        <v>43456</v>
       </c>
     </row>
     <row r="6" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D6" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="16">
-        <v>43451</v>
-      </c>
-      <c r="G6" s="16">
-        <v>43452</v>
-      </c>
-    </row>
-    <row r="7" spans="4:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="D7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="10">
-        <v>43442</v>
-      </c>
-      <c r="G7" s="10">
-        <v>43449</v>
+      <c r="D6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="10">
+        <v>43454</v>
+      </c>
+      <c r="G6" s="10">
+        <v>43455</v>
       </c>
     </row>
     <row r="8" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D8" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="10">
-        <v>43451</v>
+      <c r="D8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="16">
+        <v>43454</v>
       </c>
       <c r="G8" s="10">
-        <v>43451</v>
+        <v>43455</v>
       </c>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>63</v>
+      <c r="D9" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="F9" s="10">
-        <v>43452</v>
+        <v>43456</v>
       </c>
       <c r="G9" s="10">
-        <v>43452</v>
-      </c>
-    </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="26">
-        <v>43453</v>
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="10">
+        <v>43454</v>
+      </c>
+      <c r="G10" s="16">
+        <v>43454</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="10">
+        <v>43454</v>
+      </c>
+      <c r="G11" s="10">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="10">
+        <v>43454</v>
+      </c>
+      <c r="G12" s="10">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="10">
+        <v>43454</v>
+      </c>
+      <c r="G13" s="10">
+        <v>43456</v>
       </c>
     </row>
     <row r="15" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="26">
-        <v>43453</v>
+      <c r="D15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="10">
+        <v>43454</v>
+      </c>
+      <c r="G15" s="19">
+        <v>43454</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="10">
+        <v>43454</v>
+      </c>
+      <c r="G16" s="19">
+        <v>43455</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="10">
+        <v>43454</v>
+      </c>
+      <c r="G17" s="19">
+        <v>43454</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="10">
+        <v>43454</v>
+      </c>
+      <c r="G18" s="19">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="10">
+        <v>43454</v>
+      </c>
+      <c r="G19" s="19">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D20" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="16">
+        <v>43454</v>
+      </c>
+      <c r="G20" s="28">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="10">
+        <v>43454</v>
+      </c>
+      <c r="G21" s="19">
+        <v>43454</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="10">
+        <v>43454</v>
+      </c>
+      <c r="G22" s="19">
+        <v>43455</v>
       </c>
     </row>
   </sheetData>
